--- a/notebooks/output/acs_1yr_ten.xlsx
+++ b/notebooks/output/acs_1yr_ten.xlsx
@@ -14,11 +14,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>GEO_ID</t>
   </si>
   <si>
+    <t>p_tot_21E</t>
+  </si>
+  <si>
+    <t>p_tot_21M</t>
+  </si>
+  <si>
+    <t>p_tot_21C</t>
+  </si>
+  <si>
+    <t>p_r_21E</t>
+  </si>
+  <si>
+    <t>p_r_21M</t>
+  </si>
+  <si>
+    <t>p_r_21C</t>
+  </si>
+  <si>
     <t>p_o_21E</t>
   </si>
   <si>
@@ -28,22 +46,22 @@
     <t>p_o_21C</t>
   </si>
   <si>
-    <t>p_r_21E</t>
-  </si>
-  <si>
-    <t>p_r_21M</t>
-  </si>
-  <si>
-    <t>p_r_21C</t>
-  </si>
-  <si>
-    <t>p_tot_21E</t>
-  </si>
-  <si>
-    <t>p_tot_21M</t>
-  </si>
-  <si>
-    <t>p_tot_21C</t>
+    <t>h_tot_21E</t>
+  </si>
+  <si>
+    <t>h_tot_21M</t>
+  </si>
+  <si>
+    <t>h_tot_21C</t>
+  </si>
+  <si>
+    <t>h_rtot_21E</t>
+  </si>
+  <si>
+    <t>h_rtot_21M</t>
+  </si>
+  <si>
+    <t>h_rtot_21C</t>
   </si>
   <si>
     <t>h_otot_21E</t>
@@ -55,24 +73,6 @@
     <t>h_otot_21C</t>
   </si>
   <si>
-    <t>h_rtot_21E</t>
-  </si>
-  <si>
-    <t>h_rtot_21M</t>
-  </si>
-  <si>
-    <t>h_rtot_21C</t>
-  </si>
-  <si>
-    <t>h_tot_21E</t>
-  </si>
-  <si>
-    <t>h_tot_21M</t>
-  </si>
-  <si>
-    <t>h_tot_21C</t>
-  </si>
-  <si>
     <t>Phoenix</t>
   </si>
   <si>
@@ -94,6 +94,12 @@
     <t>Jacksonville</t>
   </si>
   <si>
+    <t>Tucson</t>
+  </si>
+  <si>
+    <t>Albuquerque</t>
+  </si>
+  <si>
     <t>Gilbert</t>
   </si>
   <si>
@@ -128,6 +134,51 @@
   </si>
   <si>
     <t>Queen Creek</t>
+  </si>
+  <si>
+    <t>0400112</t>
+  </si>
+  <si>
+    <t>0400120</t>
+  </si>
+  <si>
+    <t>0400121</t>
+  </si>
+  <si>
+    <t>0400128</t>
+  </si>
+  <si>
+    <t>0400119</t>
+  </si>
+  <si>
+    <t>0400123</t>
+  </si>
+  <si>
+    <t>0400115</t>
+  </si>
+  <si>
+    <t>0400118</t>
+  </si>
+  <si>
+    <t>0400114</t>
+  </si>
+  <si>
+    <t>0400113</t>
+  </si>
+  <si>
+    <t>0400117</t>
+  </si>
+  <si>
+    <t>0400122</t>
+  </si>
+  <si>
+    <t>0400116</t>
+  </si>
+  <si>
+    <t>0400125</t>
+  </si>
+  <si>
+    <t>0400129</t>
   </si>
 </sst>
 </file>
@@ -485,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,13 +606,13 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>977426</v>
+        <v>1601571</v>
       </c>
       <c r="C2">
-        <v>24548</v>
+        <v>5087</v>
       </c>
       <c r="D2">
-        <v>1.526744362497374</v>
+        <v>0.1930854901721791</v>
       </c>
       <c r="E2">
         <v>624145</v>
@@ -573,22 +624,22 @@
         <v>2.399196995106327</v>
       </c>
       <c r="H2">
-        <v>1601571</v>
+        <v>977426</v>
       </c>
       <c r="I2">
-        <v>5087</v>
+        <v>24548</v>
       </c>
       <c r="J2">
-        <v>0.1930854901721791</v>
+        <v>1.526744362497374</v>
       </c>
       <c r="K2">
-        <v>354237</v>
+        <v>602039</v>
       </c>
       <c r="L2">
-        <v>9062</v>
+        <v>7755</v>
       </c>
       <c r="M2">
-        <v>1.555121173018531</v>
+        <v>0.7830532098893452</v>
       </c>
       <c r="N2">
         <v>247802</v>
@@ -600,13 +651,13 @@
         <v>2.005474073341573</v>
       </c>
       <c r="Q2">
-        <v>602039</v>
+        <v>354237</v>
       </c>
       <c r="R2">
-        <v>7755</v>
+        <v>9062</v>
       </c>
       <c r="S2">
-        <v>0.7830532098893452</v>
+        <v>1.555121173018531</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -614,13 +665,13 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>3011806</v>
+        <v>4435558</v>
       </c>
       <c r="C3">
-        <v>35453</v>
+        <v>5794</v>
       </c>
       <c r="D3">
-        <v>0.7155831313135899</v>
+        <v>0.07940801247211793</v>
       </c>
       <c r="E3">
         <v>1423752</v>
@@ -632,22 +683,22 @@
         <v>1.477452418585724</v>
       </c>
       <c r="H3">
-        <v>4435558</v>
+        <v>3011806</v>
       </c>
       <c r="I3">
-        <v>5794</v>
+        <v>35453</v>
       </c>
       <c r="J3">
-        <v>0.07940801247211793</v>
+        <v>0.7155831313135899</v>
       </c>
       <c r="K3">
-        <v>1124423</v>
+        <v>1708034</v>
       </c>
       <c r="L3">
-        <v>11341</v>
+        <v>7178</v>
       </c>
       <c r="M3">
-        <v>0.6131344630990435</v>
+        <v>0.2554706660327757</v>
       </c>
       <c r="N3">
         <v>583611</v>
@@ -659,13 +710,13 @@
         <v>1.13370265020025</v>
       </c>
       <c r="Q3">
-        <v>1708034</v>
+        <v>1124423</v>
       </c>
       <c r="R3">
-        <v>7178</v>
+        <v>11341</v>
       </c>
       <c r="S3">
-        <v>0.2554706660327757</v>
+        <v>0.6131344630990435</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -673,13 +724,13 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>221165400</v>
+        <v>324132886</v>
       </c>
       <c r="C4">
-        <v>446165</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1226344283564057</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>102967486</v>
@@ -691,22 +742,22 @@
         <v>0.2634083190223349</v>
       </c>
       <c r="H4">
-        <v>324132886</v>
+        <v>221165400</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>446165</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1226344283564057</v>
       </c>
       <c r="K4">
-        <v>83396988</v>
+        <v>127544730</v>
       </c>
       <c r="L4">
-        <v>187164</v>
+        <v>97632</v>
       </c>
       <c r="M4">
-        <v>0.1364287971632551</v>
+        <v>0.04653329061766758</v>
       </c>
       <c r="N4">
         <v>44147742</v>
@@ -718,13 +769,13 @@
         <v>0.1736446280102404</v>
       </c>
       <c r="Q4">
-        <v>127544730</v>
+        <v>83396988</v>
       </c>
       <c r="R4">
-        <v>97632</v>
+        <v>187164</v>
       </c>
       <c r="S4">
-        <v>0.04653329061766758</v>
+        <v>0.1364287971632551</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -732,13 +783,13 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>4934464</v>
+        <v>7130607</v>
       </c>
       <c r="C5">
-        <v>41714</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.513896842924504</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>2196143</v>
@@ -750,22 +801,22 @@
         <v>1.15466318501328</v>
       </c>
       <c r="H5">
-        <v>7130607</v>
+        <v>4934464</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>41714</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.513896842924504</v>
       </c>
       <c r="K5">
-        <v>1905690</v>
+        <v>2817723</v>
       </c>
       <c r="L5">
-        <v>14256</v>
+        <v>10850</v>
       </c>
       <c r="M5">
-        <v>0.4547571429863352</v>
+        <v>0.234080663033629</v>
       </c>
       <c r="N5">
         <v>912033</v>
@@ -777,13 +828,13 @@
         <v>0.9549459824810305</v>
       </c>
       <c r="Q5">
-        <v>2817723</v>
+        <v>1905690</v>
       </c>
       <c r="R5">
-        <v>10850</v>
+        <v>14256</v>
       </c>
       <c r="S5">
-        <v>0.234080663033629</v>
+        <v>0.4547571429863352</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -791,13 +842,13 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>812886</v>
+        <v>1431845</v>
       </c>
       <c r="C6">
-        <v>21067</v>
+        <v>9136</v>
       </c>
       <c r="D6">
-        <v>1.575459157875912</v>
+        <v>0.3878771369874018</v>
       </c>
       <c r="E6">
         <v>618959</v>
@@ -809,22 +860,22 @@
         <v>2.128488007300384</v>
       </c>
       <c r="H6">
-        <v>1431845</v>
+        <v>812886</v>
       </c>
       <c r="I6">
-        <v>9136</v>
+        <v>21067</v>
       </c>
       <c r="J6">
-        <v>0.3878771369874018</v>
+        <v>1.575459157875912</v>
       </c>
       <c r="K6">
-        <v>290123</v>
+        <v>549245</v>
       </c>
       <c r="L6">
-        <v>6616</v>
+        <v>5787</v>
       </c>
       <c r="M6">
-        <v>1.386268754452506</v>
+        <v>0.6405034421249329</v>
       </c>
       <c r="N6">
         <v>259122</v>
@@ -836,13 +887,13 @@
         <v>1.978859214759104</v>
       </c>
       <c r="Q6">
-        <v>549245</v>
+        <v>290123</v>
       </c>
       <c r="R6">
-        <v>5787</v>
+        <v>6616</v>
       </c>
       <c r="S6">
-        <v>0.6405034421249329</v>
+        <v>1.386268754452506</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -850,13 +901,13 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>1024291</v>
+        <v>2245198</v>
       </c>
       <c r="C7">
-        <v>25301</v>
+        <v>14107</v>
       </c>
       <c r="D7">
-        <v>1.501579835462969</v>
+        <v>0.3819566866965634</v>
       </c>
       <c r="E7">
         <v>1220907</v>
@@ -868,22 +919,22 @@
         <v>1.293821116889872</v>
       </c>
       <c r="H7">
-        <v>2245198</v>
+        <v>1024291</v>
       </c>
       <c r="I7">
-        <v>14107</v>
+        <v>25301</v>
       </c>
       <c r="J7">
-        <v>0.3819566866965634</v>
+        <v>1.501579835462969</v>
       </c>
       <c r="K7">
-        <v>390226</v>
+        <v>924981</v>
       </c>
       <c r="L7">
-        <v>9351</v>
+        <v>9366</v>
       </c>
       <c r="M7">
-        <v>1.456719562572243</v>
+        <v>0.6155388079621739</v>
       </c>
       <c r="N7">
         <v>534755</v>
@@ -895,13 +946,13 @@
         <v>1.164752349874509</v>
       </c>
       <c r="Q7">
-        <v>924981</v>
+        <v>390226</v>
       </c>
       <c r="R7">
-        <v>9366</v>
+        <v>9351</v>
       </c>
       <c r="S7">
-        <v>0.6155388079621739</v>
+        <v>1.456719562572243</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -909,13 +960,13 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>566725</v>
+        <v>933775</v>
       </c>
       <c r="C8">
-        <v>15957</v>
+        <v>7054</v>
       </c>
       <c r="D8">
-        <v>1.711642145902824</v>
+        <v>0.4592268904882371</v>
       </c>
       <c r="E8">
         <v>367050</v>
@@ -927,22 +978,22 @@
         <v>2.674242057246865</v>
       </c>
       <c r="H8">
-        <v>933775</v>
+        <v>566725</v>
       </c>
       <c r="I8">
-        <v>7054</v>
+        <v>15957</v>
       </c>
       <c r="J8">
-        <v>0.4592268904882371</v>
+        <v>1.711642145902824</v>
       </c>
       <c r="K8">
-        <v>226429</v>
+        <v>386283</v>
       </c>
       <c r="L8">
-        <v>5690</v>
+        <v>5159</v>
       </c>
       <c r="M8">
-        <v>1.527616411921416</v>
+        <v>0.8118840882891448</v>
       </c>
       <c r="N8">
         <v>159854</v>
@@ -954,13 +1005,13 @@
         <v>2.421662654710417</v>
       </c>
       <c r="Q8">
-        <v>386283</v>
+        <v>226429</v>
       </c>
       <c r="R8">
-        <v>5159</v>
+        <v>5690</v>
       </c>
       <c r="S8">
-        <v>0.8118840882891448</v>
+        <v>1.527616411921416</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -968,58 +1019,58 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>211313</v>
+        <v>519653</v>
       </c>
       <c r="C9">
-        <v>7180</v>
+        <v>2906</v>
       </c>
       <c r="D9">
-        <v>2.065533895849941</v>
+        <v>0.3399509575705467</v>
       </c>
       <c r="E9">
-        <v>61393</v>
+        <v>238949</v>
       </c>
       <c r="F9">
-        <v>7212</v>
+        <v>9436</v>
       </c>
       <c r="G9">
-        <v>7.141196111731597</v>
+        <v>2.400583477129412</v>
       </c>
       <c r="H9">
-        <v>272706</v>
+        <v>280704</v>
       </c>
       <c r="I9">
-        <v>295</v>
+        <v>9955</v>
       </c>
       <c r="J9">
-        <v>0.06575994183878663</v>
+        <v>2.155890807584786</v>
       </c>
       <c r="K9">
-        <v>69983</v>
+        <v>223068</v>
       </c>
       <c r="L9">
-        <v>2583</v>
+        <v>4966</v>
       </c>
       <c r="M9">
-        <v>2.2437059942521</v>
+        <v>1.353329471193731</v>
       </c>
       <c r="N9">
-        <v>23489</v>
+        <v>108360</v>
       </c>
       <c r="O9">
-        <v>2796</v>
+        <v>3896</v>
       </c>
       <c r="P9">
-        <v>7.236136270731912</v>
+        <v>2.185667273671798</v>
       </c>
       <c r="Q9">
-        <v>93472</v>
+        <v>114708</v>
       </c>
       <c r="R9">
-        <v>2773</v>
+        <v>4345</v>
       </c>
       <c r="S9">
-        <v>1.803443047879884</v>
+        <v>2.302661877129962</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1027,58 +1078,58 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>149253</v>
+        <v>557213</v>
       </c>
       <c r="C10">
-        <v>7918</v>
+        <v>1072</v>
       </c>
       <c r="D10">
-        <v>3.224976288706003</v>
+        <v>0.1169519972654616</v>
       </c>
       <c r="E10">
-        <v>96720</v>
+        <v>193689</v>
       </c>
       <c r="F10">
-        <v>8022</v>
+        <v>11875</v>
       </c>
       <c r="G10">
-        <v>5.041972440737025</v>
+        <v>3.727028888993402</v>
       </c>
       <c r="H10">
-        <v>245973</v>
+        <v>363524</v>
       </c>
       <c r="I10">
-        <v>1246</v>
+        <v>11790</v>
       </c>
       <c r="J10">
-        <v>0.3079390048951057</v>
+        <v>1.97158186317262</v>
       </c>
       <c r="K10">
-        <v>52463</v>
+        <v>243582</v>
       </c>
       <c r="L10">
-        <v>2915</v>
+        <v>2744</v>
       </c>
       <c r="M10">
-        <v>3.37768803569017</v>
+        <v>0.6848146030424985</v>
       </c>
       <c r="N10">
-        <v>38141</v>
+        <v>95618</v>
       </c>
       <c r="O10">
-        <v>2666</v>
+        <v>4565</v>
       </c>
       <c r="P10">
-        <v>4.249151026478379</v>
+        <v>2.90225270120892</v>
       </c>
       <c r="Q10">
-        <v>90604</v>
+        <v>147964</v>
       </c>
       <c r="R10">
-        <v>2635</v>
+        <v>3964</v>
       </c>
       <c r="S10">
-        <v>1.767939283261983</v>
+        <v>1.628589686524423</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1086,58 +1137,58 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>76688</v>
+        <v>272706</v>
       </c>
       <c r="C11">
-        <v>6722</v>
+        <v>295</v>
       </c>
       <c r="D11">
-        <v>5.328502749386929</v>
+        <v>0.06575994183878663</v>
       </c>
       <c r="E11">
-        <v>19398</v>
+        <v>61393</v>
       </c>
       <c r="F11">
-        <v>6299</v>
+        <v>7212</v>
       </c>
       <c r="G11">
-        <v>19.74007284929885</v>
+        <v>7.141196111731597</v>
       </c>
       <c r="H11">
-        <v>96086</v>
+        <v>211313</v>
       </c>
       <c r="I11">
-        <v>2567</v>
+        <v>7180</v>
       </c>
       <c r="J11">
-        <v>1.624051705959713</v>
+        <v>2.065533895849941</v>
       </c>
       <c r="K11">
-        <v>25725</v>
+        <v>93472</v>
       </c>
       <c r="L11">
-        <v>2612</v>
+        <v>2773</v>
       </c>
       <c r="M11">
-        <v>6.172369077896031</v>
+        <v>1.803443047879884</v>
       </c>
       <c r="N11">
-        <v>7405</v>
+        <v>23489</v>
       </c>
       <c r="O11">
-        <v>1710</v>
+        <v>2796</v>
       </c>
       <c r="P11">
-        <v>14.03799699948076</v>
+        <v>7.236136270731912</v>
       </c>
       <c r="Q11">
-        <v>33130</v>
+        <v>69983</v>
       </c>
       <c r="R11">
-        <v>2366</v>
+        <v>2583</v>
       </c>
       <c r="S11">
-        <v>4.341376010686464</v>
+        <v>2.2437059942521</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1145,58 +1196,58 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>86464</v>
+        <v>245973</v>
       </c>
       <c r="C12">
-        <v>5092</v>
+        <v>1246</v>
       </c>
       <c r="D12">
-        <v>3.580034152344655</v>
+        <v>0.3079390048951057</v>
       </c>
       <c r="E12">
-        <v>8659</v>
+        <v>96720</v>
       </c>
       <c r="F12">
-        <v>4932</v>
+        <v>8022</v>
       </c>
       <c r="G12">
-        <v>34.62497161096331</v>
+        <v>5.041972440737025</v>
       </c>
       <c r="H12">
-        <v>95123</v>
+        <v>149253</v>
       </c>
       <c r="I12">
-        <v>1821</v>
+        <v>7918</v>
       </c>
       <c r="J12">
-        <v>1.163746813556097</v>
+        <v>3.224976288706003</v>
       </c>
       <c r="K12">
-        <v>28562</v>
+        <v>90604</v>
       </c>
       <c r="L12">
-        <v>2327</v>
+        <v>2635</v>
       </c>
       <c r="M12">
-        <v>4.9526982201999</v>
+        <v>1.767939283261983</v>
       </c>
       <c r="N12">
-        <v>2351</v>
+        <v>38141</v>
       </c>
       <c r="O12">
-        <v>1023</v>
+        <v>2666</v>
       </c>
       <c r="P12">
-        <v>26.45191401447227</v>
+        <v>4.249151026478379</v>
       </c>
       <c r="Q12">
-        <v>30913</v>
+        <v>52463</v>
       </c>
       <c r="R12">
-        <v>2250</v>
+        <v>2915</v>
       </c>
       <c r="S12">
-        <v>4.424614741420107</v>
+        <v>3.37768803569017</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1204,58 +1255,58 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <v>191565</v>
+        <v>96086</v>
       </c>
       <c r="C13">
-        <v>7682</v>
+        <v>2567</v>
       </c>
       <c r="D13">
-        <v>2.437767240670094</v>
+        <v>1.624051705959713</v>
       </c>
       <c r="E13">
-        <v>87080</v>
+        <v>19398</v>
       </c>
       <c r="F13">
-        <v>7739</v>
+        <v>6299</v>
       </c>
       <c r="G13">
-        <v>5.402571509550663</v>
+        <v>19.74007284929885</v>
       </c>
       <c r="H13">
-        <v>278645</v>
+        <v>76688</v>
       </c>
       <c r="I13">
-        <v>405</v>
+        <v>6722</v>
       </c>
       <c r="J13">
-        <v>0.08835637025704231</v>
+        <v>5.328502749386929</v>
       </c>
       <c r="K13">
-        <v>71036</v>
+        <v>33130</v>
       </c>
       <c r="L13">
-        <v>3087</v>
+        <v>2366</v>
       </c>
       <c r="M13">
-        <v>2.641753117688005</v>
+        <v>4.341376010686464</v>
       </c>
       <c r="N13">
-        <v>36632</v>
+        <v>7405</v>
       </c>
       <c r="O13">
-        <v>3017</v>
+        <v>1710</v>
       </c>
       <c r="P13">
-        <v>5.006667812817999</v>
+        <v>14.03799699948076</v>
       </c>
       <c r="Q13">
-        <v>107668</v>
+        <v>25725</v>
       </c>
       <c r="R13">
-        <v>2846</v>
+        <v>2612</v>
       </c>
       <c r="S13">
-        <v>1.606875938449989</v>
+        <v>6.172369077896031</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1263,58 +1314,58 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>328317</v>
+        <v>95123</v>
       </c>
       <c r="C14">
-        <v>9398</v>
+        <v>1821</v>
       </c>
       <c r="D14">
-        <v>1.740107855765796</v>
+        <v>1.163746813556097</v>
       </c>
       <c r="E14">
-        <v>177138</v>
+        <v>8659</v>
       </c>
       <c r="F14">
-        <v>9306</v>
+        <v>4932</v>
       </c>
       <c r="G14">
-        <v>3.193635954534237</v>
+        <v>34.62497161096331</v>
       </c>
       <c r="H14">
-        <v>505455</v>
+        <v>86464</v>
       </c>
       <c r="I14">
-        <v>1240</v>
+        <v>5092</v>
       </c>
       <c r="J14">
-        <v>0.1491328391443876</v>
+        <v>3.580034152344655</v>
       </c>
       <c r="K14">
-        <v>126146</v>
+        <v>30913</v>
       </c>
       <c r="L14">
-        <v>4698</v>
+        <v>2250</v>
       </c>
       <c r="M14">
-        <v>2.26398542297951</v>
+        <v>4.424614741420107</v>
       </c>
       <c r="N14">
-        <v>72966</v>
+        <v>2351</v>
       </c>
       <c r="O14">
-        <v>3782</v>
+        <v>1023</v>
       </c>
       <c r="P14">
-        <v>3.150903360327627</v>
+        <v>26.45191401447227</v>
       </c>
       <c r="Q14">
-        <v>199112</v>
+        <v>28562</v>
       </c>
       <c r="R14">
-        <v>5108</v>
+        <v>2327</v>
       </c>
       <c r="S14">
-        <v>1.559507801263751</v>
+        <v>4.9526982201999</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1322,58 +1373,58 @@
         <v>32</v>
       </c>
       <c r="B15">
-        <v>114315</v>
+        <v>278645</v>
       </c>
       <c r="C15">
-        <v>6557</v>
+        <v>405</v>
       </c>
       <c r="D15">
-        <v>3.486872446382423</v>
+        <v>0.08835637025704231</v>
       </c>
       <c r="E15">
-        <v>34475</v>
+        <v>87080</v>
       </c>
       <c r="F15">
-        <v>6577</v>
+        <v>7739</v>
       </c>
       <c r="G15">
-        <v>11.59732064334536</v>
+        <v>5.402571509550663</v>
       </c>
       <c r="H15">
-        <v>148790</v>
+        <v>191565</v>
       </c>
       <c r="I15">
-        <v>207</v>
+        <v>7682</v>
       </c>
       <c r="J15">
-        <v>0.08457279807876751</v>
+        <v>2.437767240670094</v>
       </c>
       <c r="K15">
-        <v>43073</v>
+        <v>107668</v>
       </c>
       <c r="L15">
-        <v>2758</v>
+        <v>2846</v>
       </c>
       <c r="M15">
-        <v>3.892451755579716</v>
+        <v>1.606875938449989</v>
       </c>
       <c r="N15">
-        <v>12266</v>
+        <v>36632</v>
       </c>
       <c r="O15">
-        <v>1867</v>
+        <v>3017</v>
       </c>
       <c r="P15">
-        <v>9.252848583848303</v>
+        <v>5.006667812817999</v>
       </c>
       <c r="Q15">
-        <v>55339</v>
+        <v>71036</v>
       </c>
       <c r="R15">
-        <v>2555</v>
+        <v>3087</v>
       </c>
       <c r="S15">
-        <v>2.806685139524932</v>
+        <v>2.641753117688005</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1381,58 +1432,58 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>55674</v>
+        <v>505455</v>
       </c>
       <c r="C16">
-        <v>5556</v>
+        <v>1240</v>
       </c>
       <c r="D16">
-        <v>6.066579729827557</v>
+        <v>0.1491328391443876</v>
       </c>
       <c r="E16">
-        <v>34781</v>
+        <v>177138</v>
       </c>
       <c r="F16">
-        <v>5581</v>
+        <v>9306</v>
       </c>
       <c r="G16">
-        <v>9.754478500253738</v>
+        <v>3.193635954534237</v>
       </c>
       <c r="H16">
-        <v>90455</v>
+        <v>328317</v>
       </c>
       <c r="I16">
-        <v>218</v>
+        <v>9398</v>
       </c>
       <c r="J16">
-        <v>0.1465068778426661</v>
+        <v>1.740107855765796</v>
       </c>
       <c r="K16">
-        <v>16016</v>
+        <v>199112</v>
       </c>
       <c r="L16">
-        <v>1697</v>
+        <v>5108</v>
       </c>
       <c r="M16">
-        <v>6.441127261795954</v>
+        <v>1.559507801263751</v>
       </c>
       <c r="N16">
-        <v>10595</v>
+        <v>72966</v>
       </c>
       <c r="O16">
-        <v>1524</v>
+        <v>3782</v>
       </c>
       <c r="P16">
-        <v>8.744160160424356</v>
+        <v>3.150903360327627</v>
       </c>
       <c r="Q16">
-        <v>26611</v>
+        <v>126146</v>
       </c>
       <c r="R16">
-        <v>1944</v>
+        <v>4698</v>
       </c>
       <c r="S16">
-        <v>4.440881281925259</v>
+        <v>2.26398542297951</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1440,58 +1491,58 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>152655</v>
+        <v>148790</v>
       </c>
       <c r="C17">
-        <v>6680</v>
+        <v>207</v>
       </c>
       <c r="D17">
-        <v>2.66010957620532</v>
+        <v>0.08457279807876751</v>
       </c>
       <c r="E17">
-        <v>41044</v>
+        <v>34475</v>
       </c>
       <c r="F17">
-        <v>6591</v>
+        <v>6577</v>
       </c>
       <c r="G17">
-        <v>9.761930928006981</v>
+        <v>11.59732064334536</v>
       </c>
       <c r="H17">
-        <v>193699</v>
+        <v>114315</v>
       </c>
       <c r="I17">
-        <v>506</v>
+        <v>6557</v>
       </c>
       <c r="J17">
-        <v>0.1588024637166577</v>
+        <v>3.486872446382423</v>
       </c>
       <c r="K17">
-        <v>58326</v>
+        <v>55339</v>
       </c>
       <c r="L17">
-        <v>3011</v>
+        <v>2555</v>
       </c>
       <c r="M17">
-        <v>3.138214752902849</v>
+        <v>2.806685139524932</v>
       </c>
       <c r="N17">
-        <v>17153</v>
+        <v>12266</v>
       </c>
       <c r="O17">
-        <v>2298</v>
+        <v>1867</v>
       </c>
       <c r="P17">
-        <v>8.144117567318769</v>
+        <v>9.252848583848303</v>
       </c>
       <c r="Q17">
-        <v>75479</v>
+        <v>43073</v>
       </c>
       <c r="R17">
-        <v>3016</v>
+        <v>2758</v>
       </c>
       <c r="S17">
-        <v>2.429065899728305</v>
+        <v>3.892451755579716</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1499,235 +1550,1238 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>171568</v>
+        <v>90455</v>
       </c>
       <c r="C18">
-        <v>5108</v>
+        <v>218</v>
       </c>
       <c r="D18">
-        <v>1.809875485668819</v>
+        <v>0.1465068778426661</v>
       </c>
       <c r="E18">
-        <v>69496</v>
+        <v>34781</v>
       </c>
       <c r="F18">
-        <v>5242</v>
+        <v>5581</v>
       </c>
       <c r="G18">
-        <v>4.585337486787195</v>
+        <v>9.754478500253738</v>
       </c>
       <c r="H18">
-        <v>241064</v>
+        <v>55674</v>
       </c>
       <c r="I18">
-        <v>737</v>
+        <v>5556</v>
       </c>
       <c r="J18">
-        <v>0.1858528507406425</v>
+        <v>6.066579729827557</v>
       </c>
       <c r="K18">
-        <v>80132</v>
+        <v>26611</v>
       </c>
       <c r="L18">
-        <v>2939</v>
+        <v>1944</v>
       </c>
       <c r="M18">
-        <v>2.229603828455085</v>
+        <v>4.440881281925259</v>
       </c>
       <c r="N18">
-        <v>38990</v>
+        <v>10595</v>
       </c>
       <c r="O18">
-        <v>2937</v>
+        <v>1524</v>
       </c>
       <c r="P18">
-        <v>4.579149357133891</v>
+        <v>8.744160160424356</v>
       </c>
       <c r="Q18">
-        <v>119122</v>
+        <v>16016</v>
       </c>
       <c r="R18">
-        <v>3184</v>
+        <v>1697</v>
       </c>
       <c r="S18">
-        <v>1.624857129690901</v>
+        <v>6.441127261795954</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B19">
-        <v>977426</v>
+        <v>193699</v>
       </c>
       <c r="C19">
-        <v>24548</v>
+        <v>506</v>
       </c>
       <c r="D19">
-        <v>1.526744362497374</v>
+        <v>0.1588024637166577</v>
       </c>
       <c r="E19">
-        <v>624145</v>
+        <v>41044</v>
       </c>
       <c r="F19">
-        <v>24633</v>
+        <v>6591</v>
       </c>
       <c r="G19">
-        <v>2.399196995106327</v>
+        <v>9.761930928006981</v>
       </c>
       <c r="H19">
-        <v>1601571</v>
+        <v>152655</v>
       </c>
       <c r="I19">
-        <v>5087</v>
+        <v>6680</v>
       </c>
       <c r="J19">
-        <v>0.1930854901721791</v>
+        <v>2.66010957620532</v>
       </c>
       <c r="K19">
-        <v>354237</v>
+        <v>75479</v>
       </c>
       <c r="L19">
-        <v>9062</v>
+        <v>3016</v>
       </c>
       <c r="M19">
-        <v>1.555121173018531</v>
+        <v>2.429065899728305</v>
       </c>
       <c r="N19">
-        <v>247802</v>
+        <v>17153</v>
       </c>
       <c r="O19">
-        <v>8175</v>
+        <v>2298</v>
       </c>
       <c r="P19">
-        <v>2.005474073341573</v>
+        <v>8.144117567318769</v>
       </c>
       <c r="Q19">
-        <v>602039</v>
+        <v>58326</v>
       </c>
       <c r="R19">
-        <v>7755</v>
+        <v>3011</v>
       </c>
       <c r="S19">
-        <v>0.7830532098893452</v>
+        <v>3.138214752902849</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20">
-        <v>76590</v>
+        <v>241064</v>
       </c>
       <c r="C20">
-        <v>6144</v>
+        <v>737</v>
       </c>
       <c r="D20">
-        <v>4.87655621790682</v>
+        <v>0.1858528507406425</v>
       </c>
       <c r="E20">
-        <v>95403</v>
+        <v>69496</v>
       </c>
       <c r="F20">
-        <v>5795</v>
+        <v>5242</v>
       </c>
       <c r="G20">
-        <v>3.692542532817193</v>
+        <v>4.585337486787195</v>
       </c>
       <c r="H20">
-        <v>171993</v>
+        <v>171568</v>
       </c>
       <c r="I20">
-        <v>3131</v>
+        <v>5108</v>
       </c>
       <c r="J20">
-        <v>1.106640075494696</v>
+        <v>1.809875485668819</v>
       </c>
       <c r="K20">
-        <v>32131</v>
+        <v>119122</v>
       </c>
       <c r="L20">
-        <v>2804</v>
+        <v>3184</v>
       </c>
       <c r="M20">
-        <v>5.305030252767475</v>
+        <v>1.624857129690901</v>
       </c>
       <c r="N20">
-        <v>45175</v>
+        <v>38990</v>
       </c>
       <c r="O20">
-        <v>2627</v>
+        <v>2937</v>
       </c>
       <c r="P20">
-        <v>3.535053649855425</v>
+        <v>4.579149357133891</v>
       </c>
       <c r="Q20">
-        <v>77306</v>
+        <v>80132</v>
       </c>
       <c r="R20">
-        <v>2767</v>
+        <v>2939</v>
       </c>
       <c r="S20">
-        <v>2.175855521306123</v>
+        <v>2.229603828455085</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B21">
+        <v>1601571</v>
+      </c>
+      <c r="C21">
+        <v>5087</v>
+      </c>
+      <c r="D21">
+        <v>0.1930854901721791</v>
+      </c>
+      <c r="E21">
+        <v>624145</v>
+      </c>
+      <c r="F21">
+        <v>24633</v>
+      </c>
+      <c r="G21">
+        <v>2.399196995106327</v>
+      </c>
+      <c r="H21">
+        <v>977426</v>
+      </c>
+      <c r="I21">
+        <v>24548</v>
+      </c>
+      <c r="J21">
+        <v>1.526744362497374</v>
+      </c>
+      <c r="K21">
+        <v>602039</v>
+      </c>
+      <c r="L21">
+        <v>7755</v>
+      </c>
+      <c r="M21">
+        <v>0.7830532098893452</v>
+      </c>
+      <c r="N21">
+        <v>247802</v>
+      </c>
+      <c r="O21">
+        <v>8175</v>
+      </c>
+      <c r="P21">
+        <v>2.005474073341573</v>
+      </c>
+      <c r="Q21">
+        <v>354237</v>
+      </c>
+      <c r="R21">
+        <v>9062</v>
+      </c>
+      <c r="S21">
+        <v>1.555121173018531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>171993</v>
+      </c>
+      <c r="C22">
+        <v>3131</v>
+      </c>
+      <c r="D22">
+        <v>1.106640075494696</v>
+      </c>
+      <c r="E22">
+        <v>95403</v>
+      </c>
+      <c r="F22">
+        <v>5795</v>
+      </c>
+      <c r="G22">
+        <v>3.692542532817193</v>
+      </c>
+      <c r="H22">
+        <v>76590</v>
+      </c>
+      <c r="I22">
+        <v>6144</v>
+      </c>
+      <c r="J22">
+        <v>4.87655621790682</v>
+      </c>
+      <c r="K22">
+        <v>77306</v>
+      </c>
+      <c r="L22">
+        <v>2767</v>
+      </c>
+      <c r="M22">
+        <v>2.175855521306123</v>
+      </c>
+      <c r="N22">
+        <v>45175</v>
+      </c>
+      <c r="O22">
+        <v>2627</v>
+      </c>
+      <c r="P22">
+        <v>3.535053649855425</v>
+      </c>
+      <c r="Q22">
+        <v>32131</v>
+      </c>
+      <c r="R22">
+        <v>2804</v>
+      </c>
+      <c r="S22">
+        <v>5.305030252767475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>69027</v>
+      </c>
+      <c r="C23">
+        <v>4413</v>
+      </c>
+      <c r="D23">
+        <v>3.886413681655691</v>
+      </c>
+      <c r="E23">
+        <v>8062</v>
+      </c>
+      <c r="F23">
+        <v>4237</v>
+      </c>
+      <c r="G23">
+        <v>31.9484481589867</v>
+      </c>
+      <c r="H23">
         <v>60965</v>
       </c>
-      <c r="C21">
+      <c r="I23">
         <v>6114</v>
       </c>
-      <c r="D21">
+      <c r="J23">
         <v>6.096477200406731</v>
       </c>
-      <c r="E21">
-        <v>8062</v>
-      </c>
-      <c r="F21">
-        <v>4237</v>
-      </c>
-      <c r="G21">
-        <v>31.9484481589867</v>
-      </c>
-      <c r="H21">
-        <v>69027</v>
-      </c>
-      <c r="I21">
-        <v>4413</v>
-      </c>
-      <c r="J21">
-        <v>3.886413681655691</v>
-      </c>
-      <c r="K21">
+      <c r="K23">
+        <v>20981</v>
+      </c>
+      <c r="L23">
+        <v>1394</v>
+      </c>
+      <c r="M23">
+        <v>4.038970560859159</v>
+      </c>
+      <c r="N23">
+        <v>2422</v>
+      </c>
+      <c r="O23">
+        <v>1066</v>
+      </c>
+      <c r="P23">
+        <v>26.75575211021562</v>
+      </c>
+      <c r="Q23">
         <v>18559</v>
       </c>
-      <c r="L21">
+      <c r="R23">
         <v>1839</v>
       </c>
-      <c r="M21">
+      <c r="S23">
         <v>6.023671160617965</v>
       </c>
-      <c r="N21">
-        <v>2422</v>
-      </c>
-      <c r="O21">
-        <v>1066</v>
-      </c>
-      <c r="P21">
-        <v>26.75575211021562</v>
-      </c>
-      <c r="Q21">
-        <v>20981</v>
-      </c>
-      <c r="R21">
-        <v>1394</v>
-      </c>
-      <c r="S21">
-        <v>4.038970560859159</v>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>136823</v>
+      </c>
+      <c r="C24">
+        <v>8727</v>
+      </c>
+      <c r="D24">
+        <v>3.877394278193198</v>
+      </c>
+      <c r="E24">
+        <v>24541</v>
+      </c>
+      <c r="F24">
+        <v>5881</v>
+      </c>
+      <c r="G24">
+        <v>14.56776817506192</v>
+      </c>
+      <c r="H24">
+        <v>112282</v>
+      </c>
+      <c r="I24">
+        <v>8238</v>
+      </c>
+      <c r="J24">
+        <v>4.46011180381745</v>
+      </c>
+      <c r="K24">
+        <v>58257</v>
+      </c>
+      <c r="L24">
+        <v>3140</v>
+      </c>
+      <c r="M24">
+        <v>3.276541170444159</v>
+      </c>
+      <c r="N24">
+        <v>12218</v>
+      </c>
+      <c r="O24">
+        <v>2382</v>
+      </c>
+      <c r="P24">
+        <v>11.85156585455412</v>
+      </c>
+      <c r="Q24">
+        <v>46039</v>
+      </c>
+      <c r="R24">
+        <v>2979</v>
+      </c>
+      <c r="S24">
+        <v>3.933496056039708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>107086</v>
+      </c>
+      <c r="C25">
+        <v>9638</v>
+      </c>
+      <c r="D25">
+        <v>5.471272216115594</v>
+      </c>
+      <c r="E25">
+        <v>29175</v>
+      </c>
+      <c r="F25">
+        <v>6328</v>
+      </c>
+      <c r="G25">
+        <v>13.18529052489562</v>
+      </c>
+      <c r="H25">
+        <v>77911</v>
+      </c>
+      <c r="I25">
+        <v>6727</v>
+      </c>
+      <c r="J25">
+        <v>5.24876038316497</v>
+      </c>
+      <c r="K25">
+        <v>42867</v>
+      </c>
+      <c r="L25">
+        <v>3030</v>
+      </c>
+      <c r="M25">
+        <v>4.296884057092401</v>
+      </c>
+      <c r="N25">
+        <v>12419</v>
+      </c>
+      <c r="O25">
+        <v>2357</v>
+      </c>
+      <c r="P25">
+        <v>11.53737617940546</v>
+      </c>
+      <c r="Q25">
+        <v>30448</v>
+      </c>
+      <c r="R25">
+        <v>2043</v>
+      </c>
+      <c r="S25">
+        <v>4.07890596674264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <v>148288</v>
+      </c>
+      <c r="C26">
+        <v>9792</v>
+      </c>
+      <c r="D26">
+        <v>4.014204511913398</v>
+      </c>
+      <c r="E26">
+        <v>37158</v>
+      </c>
+      <c r="F26">
+        <v>7089</v>
+      </c>
+      <c r="G26">
+        <v>11.59756308843645</v>
+      </c>
+      <c r="H26">
+        <v>111130</v>
+      </c>
+      <c r="I26">
+        <v>9690</v>
+      </c>
+      <c r="J26">
+        <v>5.300618651668122</v>
+      </c>
+      <c r="K26">
+        <v>43773</v>
+      </c>
+      <c r="L26">
+        <v>2705</v>
+      </c>
+      <c r="M26">
+        <v>3.756600871989694</v>
+      </c>
+      <c r="N26">
+        <v>11113</v>
+      </c>
+      <c r="O26">
+        <v>1830</v>
+      </c>
+      <c r="P26">
+        <v>10.01045627714413</v>
+      </c>
+      <c r="Q26">
+        <v>32660</v>
+      </c>
+      <c r="R26">
+        <v>2632</v>
+      </c>
+      <c r="S26">
+        <v>4.898958971218616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>109244</v>
+      </c>
+      <c r="C27">
+        <v>9127</v>
+      </c>
+      <c r="D27">
+        <v>5.078840272671455</v>
+      </c>
+      <c r="E27">
+        <v>28056</v>
+      </c>
+      <c r="F27">
+        <v>5442</v>
+      </c>
+      <c r="G27">
+        <v>11.7914409998934</v>
+      </c>
+      <c r="H27">
+        <v>81188</v>
+      </c>
+      <c r="I27">
+        <v>8817</v>
+      </c>
+      <c r="J27">
+        <v>6.60181112904972</v>
+      </c>
+      <c r="K27">
+        <v>42676</v>
+      </c>
+      <c r="L27">
+        <v>3152</v>
+      </c>
+      <c r="M27">
+        <v>4.489899293496113</v>
+      </c>
+      <c r="N27">
+        <v>12296</v>
+      </c>
+      <c r="O27">
+        <v>2163</v>
+      </c>
+      <c r="P27">
+        <v>10.69366962444109</v>
+      </c>
+      <c r="Q27">
+        <v>30380</v>
+      </c>
+      <c r="R27">
+        <v>2630</v>
+      </c>
+      <c r="S27">
+        <v>5.262620785151005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>112795</v>
+      </c>
+      <c r="C28">
+        <v>9862</v>
+      </c>
+      <c r="D28">
+        <v>5.315073166466157</v>
+      </c>
+      <c r="E28">
+        <v>35383</v>
+      </c>
+      <c r="F28">
+        <v>6542</v>
+      </c>
+      <c r="G28">
+        <v>11.23957746954366</v>
+      </c>
+      <c r="H28">
+        <v>77412</v>
+      </c>
+      <c r="I28">
+        <v>9439</v>
+      </c>
+      <c r="J28">
+        <v>7.412279647822875</v>
+      </c>
+      <c r="K28">
+        <v>35433</v>
+      </c>
+      <c r="L28">
+        <v>2540</v>
+      </c>
+      <c r="M28">
+        <v>4.357725702955627</v>
+      </c>
+      <c r="N28">
+        <v>11848</v>
+      </c>
+      <c r="O28">
+        <v>1825</v>
+      </c>
+      <c r="P28">
+        <v>9.36379551317704</v>
+      </c>
+      <c r="Q28">
+        <v>23585</v>
+      </c>
+      <c r="R28">
+        <v>2560</v>
+      </c>
+      <c r="S28">
+        <v>6.598393059315299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>131742</v>
+      </c>
+      <c r="C29">
+        <v>11570</v>
+      </c>
+      <c r="D29">
+        <v>5.338794500201854</v>
+      </c>
+      <c r="E29">
+        <v>58552</v>
+      </c>
+      <c r="F29">
+        <v>9002</v>
+      </c>
+      <c r="G29">
+        <v>9.346120415241007</v>
+      </c>
+      <c r="H29">
+        <v>73190</v>
+      </c>
+      <c r="I29">
+        <v>9410</v>
+      </c>
+      <c r="J29">
+        <v>7.815773659846068</v>
+      </c>
+      <c r="K29">
+        <v>35154</v>
+      </c>
+      <c r="L29">
+        <v>2748</v>
+      </c>
+      <c r="M29">
+        <v>4.751996123699232</v>
+      </c>
+      <c r="N29">
+        <v>14577</v>
+      </c>
+      <c r="O29">
+        <v>2244</v>
+      </c>
+      <c r="P29">
+        <v>9.358124021416092</v>
+      </c>
+      <c r="Q29">
+        <v>20577</v>
+      </c>
+      <c r="R29">
+        <v>2270</v>
+      </c>
+      <c r="S29">
+        <v>6.706221556720823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30">
+        <v>109531</v>
+      </c>
+      <c r="C30">
+        <v>10572</v>
+      </c>
+      <c r="D30">
+        <v>5.86751487739977</v>
+      </c>
+      <c r="E30">
+        <v>45980</v>
+      </c>
+      <c r="F30">
+        <v>6822</v>
+      </c>
+      <c r="G30">
+        <v>9.019383344945799</v>
+      </c>
+      <c r="H30">
+        <v>63551</v>
+      </c>
+      <c r="I30">
+        <v>7443</v>
+      </c>
+      <c r="J30">
+        <v>7.119667764142616</v>
+      </c>
+      <c r="K30">
+        <v>44062</v>
+      </c>
+      <c r="L30">
+        <v>3621</v>
+      </c>
+      <c r="M30">
+        <v>4.995723765310527</v>
+      </c>
+      <c r="N30">
+        <v>20284</v>
+      </c>
+      <c r="O30">
+        <v>2587</v>
+      </c>
+      <c r="P30">
+        <v>7.753127474362532</v>
+      </c>
+      <c r="Q30">
+        <v>23778</v>
+      </c>
+      <c r="R30">
+        <v>2298</v>
+      </c>
+      <c r="S30">
+        <v>5.875012559181548</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31">
+        <v>107022</v>
+      </c>
+      <c r="C31">
+        <v>7447</v>
+      </c>
+      <c r="D31">
+        <v>4.230019689159727</v>
+      </c>
+      <c r="E31">
+        <v>71639</v>
+      </c>
+      <c r="F31">
+        <v>6915</v>
+      </c>
+      <c r="G31">
+        <v>5.867819785889494</v>
+      </c>
+      <c r="H31">
+        <v>35383</v>
+      </c>
+      <c r="I31">
+        <v>5264</v>
+      </c>
+      <c r="J31">
+        <v>9.043891134160473</v>
+      </c>
+      <c r="K31">
+        <v>49399</v>
+      </c>
+      <c r="L31">
+        <v>3211</v>
+      </c>
+      <c r="M31">
+        <v>3.95144776997627</v>
+      </c>
+      <c r="N31">
+        <v>34073</v>
+      </c>
+      <c r="O31">
+        <v>2761</v>
+      </c>
+      <c r="P31">
+        <v>4.925951494988812</v>
+      </c>
+      <c r="Q31">
+        <v>15326</v>
+      </c>
+      <c r="R31">
+        <v>2036</v>
+      </c>
+      <c r="S31">
+        <v>8.075753422973138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32">
+        <v>103763</v>
+      </c>
+      <c r="C32">
+        <v>8251</v>
+      </c>
+      <c r="D32">
+        <v>4.833905603273441</v>
+      </c>
+      <c r="E32">
+        <v>45300</v>
+      </c>
+      <c r="F32">
+        <v>6631</v>
+      </c>
+      <c r="G32">
+        <v>8.898461455880083</v>
+      </c>
+      <c r="H32">
+        <v>58463</v>
+      </c>
+      <c r="I32">
+        <v>6052</v>
+      </c>
+      <c r="J32">
+        <v>6.292915785408036</v>
+      </c>
+      <c r="K32">
+        <v>47592</v>
+      </c>
+      <c r="L32">
+        <v>3071</v>
+      </c>
+      <c r="M32">
+        <v>3.922653599159216</v>
+      </c>
+      <c r="N32">
+        <v>19687</v>
+      </c>
+      <c r="O32">
+        <v>2309</v>
+      </c>
+      <c r="P32">
+        <v>7.129818745432893</v>
+      </c>
+      <c r="Q32">
+        <v>27905</v>
+      </c>
+      <c r="R32">
+        <v>2400</v>
+      </c>
+      <c r="S32">
+        <v>5.228333866151385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33">
+        <v>98264</v>
+      </c>
+      <c r="C33">
+        <v>7853</v>
+      </c>
+      <c r="D33">
+        <v>4.858198508477998</v>
+      </c>
+      <c r="E33">
+        <v>26148</v>
+      </c>
+      <c r="F33">
+        <v>4626</v>
+      </c>
+      <c r="G33">
+        <v>10.75477304081095</v>
+      </c>
+      <c r="H33">
+        <v>72116</v>
+      </c>
+      <c r="I33">
+        <v>6606</v>
+      </c>
+      <c r="J33">
+        <v>5.568536068451689</v>
+      </c>
+      <c r="K33">
+        <v>43131</v>
+      </c>
+      <c r="L33">
+        <v>2969</v>
+      </c>
+      <c r="M33">
+        <v>4.184607873419346</v>
+      </c>
+      <c r="N33">
+        <v>12599</v>
+      </c>
+      <c r="O33">
+        <v>1809</v>
+      </c>
+      <c r="P33">
+        <v>8.728439150981975</v>
+      </c>
+      <c r="Q33">
+        <v>30532</v>
+      </c>
+      <c r="R33">
+        <v>2398</v>
+      </c>
+      <c r="S33">
+        <v>4.774501375207715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>110884</v>
+      </c>
+      <c r="C34">
+        <v>9410</v>
+      </c>
+      <c r="D34">
+        <v>5.15887300389717</v>
+      </c>
+      <c r="E34">
+        <v>50316</v>
+      </c>
+      <c r="F34">
+        <v>7072</v>
+      </c>
+      <c r="G34">
+        <v>8.544177092568281</v>
+      </c>
+      <c r="H34">
+        <v>60568</v>
+      </c>
+      <c r="I34">
+        <v>7888</v>
+      </c>
+      <c r="J34">
+        <v>7.916947526937494</v>
+      </c>
+      <c r="K34">
+        <v>48019</v>
+      </c>
+      <c r="L34">
+        <v>2891</v>
+      </c>
+      <c r="M34">
+        <v>3.659898807785748</v>
+      </c>
+      <c r="N34">
+        <v>23694</v>
+      </c>
+      <c r="O34">
+        <v>2453</v>
+      </c>
+      <c r="P34">
+        <v>6.29351485749281</v>
+      </c>
+      <c r="Q34">
+        <v>24325</v>
+      </c>
+      <c r="R34">
+        <v>2290</v>
+      </c>
+      <c r="S34">
+        <v>5.722907561922672</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35">
+        <v>107968</v>
+      </c>
+      <c r="C35">
+        <v>10293</v>
+      </c>
+      <c r="D35">
+        <v>5.795367939707003</v>
+      </c>
+      <c r="E35">
+        <v>47855</v>
+      </c>
+      <c r="F35">
+        <v>8948</v>
+      </c>
+      <c r="G35">
+        <v>11.3666569382751</v>
+      </c>
+      <c r="H35">
+        <v>60113</v>
+      </c>
+      <c r="I35">
+        <v>9541</v>
+      </c>
+      <c r="J35">
+        <v>9.648495333788032</v>
+      </c>
+      <c r="K35">
+        <v>31437</v>
+      </c>
+      <c r="L35">
+        <v>2223</v>
+      </c>
+      <c r="M35">
+        <v>4.298653755622404</v>
+      </c>
+      <c r="N35">
+        <v>14329</v>
+      </c>
+      <c r="O35">
+        <v>1945</v>
+      </c>
+      <c r="P35">
+        <v>8.251593416628467</v>
+      </c>
+      <c r="Q35">
+        <v>17108</v>
+      </c>
+      <c r="R35">
+        <v>2078</v>
+      </c>
+      <c r="S35">
+        <v>7.383808069315409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36">
+        <v>115769</v>
+      </c>
+      <c r="C36">
+        <v>8591</v>
+      </c>
+      <c r="D36">
+        <v>4.511131996662151</v>
+      </c>
+      <c r="E36">
+        <v>65792</v>
+      </c>
+      <c r="F36">
+        <v>7880</v>
+      </c>
+      <c r="G36">
+        <v>7.280936217520371</v>
+      </c>
+      <c r="H36">
+        <v>49977</v>
+      </c>
+      <c r="I36">
+        <v>5491</v>
+      </c>
+      <c r="J36">
+        <v>6.679060209641724</v>
+      </c>
+      <c r="K36">
+        <v>50675</v>
+      </c>
+      <c r="L36">
+        <v>2841</v>
+      </c>
+      <c r="M36">
+        <v>3.408094073473158</v>
+      </c>
+      <c r="N36">
+        <v>29200</v>
+      </c>
+      <c r="O36">
+        <v>2687</v>
+      </c>
+      <c r="P36">
+        <v>5.593954282383312</v>
+      </c>
+      <c r="Q36">
+        <v>21475</v>
+      </c>
+      <c r="R36">
+        <v>1827</v>
+      </c>
+      <c r="S36">
+        <v>5.171773214772249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>117073</v>
+      </c>
+      <c r="C37">
+        <v>9756</v>
+      </c>
+      <c r="D37">
+        <v>5.065812858768372</v>
+      </c>
+      <c r="E37">
+        <v>46274</v>
+      </c>
+      <c r="F37">
+        <v>9848</v>
+      </c>
+      <c r="G37">
+        <v>12.93734308643651</v>
+      </c>
+      <c r="H37">
+        <v>70799</v>
+      </c>
+      <c r="I37">
+        <v>8138</v>
+      </c>
+      <c r="J37">
+        <v>6.987545674382519</v>
+      </c>
+      <c r="K37">
+        <v>41183</v>
+      </c>
+      <c r="L37">
+        <v>2677</v>
+      </c>
+      <c r="M37">
+        <v>3.951522771775499</v>
+      </c>
+      <c r="N37">
+        <v>16221</v>
+      </c>
+      <c r="O37">
+        <v>2500</v>
+      </c>
+      <c r="P37">
+        <v>9.369069964279484</v>
+      </c>
+      <c r="Q37">
+        <v>24962</v>
+      </c>
+      <c r="R37">
+        <v>2475</v>
+      </c>
+      <c r="S37">
+        <v>6.027398728133632</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38">
+        <v>145365</v>
+      </c>
+      <c r="C38">
+        <v>10827</v>
+      </c>
+      <c r="D38">
+        <v>4.527749401804513</v>
+      </c>
+      <c r="E38">
+        <v>24005</v>
+      </c>
+      <c r="F38">
+        <v>5637</v>
+      </c>
+      <c r="G38">
+        <v>14.2751415137044</v>
+      </c>
+      <c r="H38">
+        <v>121360</v>
+      </c>
+      <c r="I38">
+        <v>9404</v>
+      </c>
+      <c r="J38">
+        <v>4.710544928500299</v>
+      </c>
+      <c r="K38">
+        <v>52580</v>
+      </c>
+      <c r="L38">
+        <v>3197</v>
+      </c>
+      <c r="M38">
+        <v>3.696205868377149</v>
+      </c>
+      <c r="N38">
+        <v>9337</v>
+      </c>
+      <c r="O38">
+        <v>1682</v>
+      </c>
+      <c r="P38">
+        <v>10.95097355912826</v>
+      </c>
+      <c r="Q38">
+        <v>43243</v>
+      </c>
+      <c r="R38">
+        <v>2834</v>
+      </c>
+      <c r="S38">
+        <v>3.98398897528753</v>
       </c>
     </row>
   </sheetData>
